--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="57">
   <si>
     <t>codigo</t>
   </si>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -400,6 +400,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D4005-2E5B-4316-B331-8FBB6649AB07}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
@@ -1434,10 +1437,10 @@
         <v>3.8</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>150.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>13</v>
@@ -1445,7 +1448,7 @@
       <c r="I2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" t="n" s="11">
+      <c r="J2" t="n" s="14">
         <v>46022.0</v>
       </c>
     </row>
@@ -1537,7 +1540,7 @@
       <c r="I5" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J5" t="n" s="11">
+      <c r="J5" t="n" s="14">
         <v>45838.0</v>
       </c>
     </row>
@@ -1569,7 +1572,7 @@
       <c r="I6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J6" t="n" s="11">
+      <c r="J6" t="n" s="14">
         <v>46387.0</v>
       </c>
     </row>
@@ -1631,7 +1634,103 @@
       <c r="I8" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="J8" t="n" s="11">
+      <c r="J8" t="n" s="14">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J9" t="n" s="14">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J10" t="n" s="14">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J11" t="n" s="14">
         <v>46022.0</v>
       </c>
     </row>

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Escritorio\Sistema de almacen\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{418137DF-E5EC-4386-BD6C-6C683AA0A549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CD8E62-9CCA-49BA-BB9E-006EAD1C5E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4E2ADF9C-5ABC-4121-9AC5-090A39F36A55}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{4E2ADF9C-5ABC-4121-9AC5-090A39F36A55}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
     <sheet name="Usuarios" sheetId="2" r:id="rId2"/>
+    <sheet name="Categorias" sheetId="3" r:id="rId3"/>
+    <sheet name="Proveedores" sheetId="4" r:id="rId4"/>
+    <sheet name="HistorialVentas" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
   <si>
     <t>codigo</t>
   </si>
@@ -97,9 +100,6 @@
     <t>PROV-B</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>PROD-003</t>
   </si>
   <si>
@@ -206,6 +206,75 @@
   </si>
   <si>
     <t>Prov-0045</t>
+  </si>
+  <si>
+    <t>nombreCategoria</t>
+  </si>
+  <si>
+    <t>Lácteos</t>
+  </si>
+  <si>
+    <t>Abarrotes</t>
+  </si>
+  <si>
+    <t>Bebidas</t>
+  </si>
+  <si>
+    <t>Conservas</t>
+  </si>
+  <si>
+    <t>Limpieza</t>
+  </si>
+  <si>
+    <t>idVenta</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>productoVendido</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>VENTA-001</t>
+  </si>
+  <si>
+    <t>VENTA-002</t>
+  </si>
+  <si>
+    <t>Distribuidora Central S.A.</t>
+  </si>
+  <si>
+    <t>Alicorp S.A.A.</t>
+  </si>
+  <si>
+    <t>Arca Continental Lindley</t>
+  </si>
+  <si>
+    <t>idProveedor (int)</t>
+  </si>
+  <si>
+    <t>nombre (String)</t>
+  </si>
+  <si>
+    <t>telefono (String)</t>
+  </si>
+  <si>
+    <t>email (String)</t>
+  </si>
+  <si>
+    <t>ventas@central.com</t>
+  </si>
+  <si>
+    <t>contacto@alicorp.pe</t>
+  </si>
+  <si>
+    <t>pedidos@arca.com</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -245,7 +314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -260,32 +329,6 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -329,115 +372,37 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -583,13 +548,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FF000000"/>
         </left>
@@ -599,6 +557,13 @@
         <top style="medium">
           <color rgb="FF000000"/>
         </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -632,25 +597,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
       <font>
@@ -1007,13 +953,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FF000000"/>
         </left>
@@ -1026,6 +965,61 @@
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1042,32 +1036,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9DE182EC-393B-425D-9A86-F973FE66AD62}" name="Tabla1" displayName="Tabla1" ref="A1:J7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9DE182EC-393B-425D-9A86-F973FE66AD62}" name="Tabla1" displayName="Tabla1" ref="A1:J7" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A1:J7" xr:uid="{9DE182EC-393B-425D-9A86-F973FE66AD62}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A86C56FD-2CAA-4503-8706-DE6BF1E15690}" name="codigo" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{94D78787-A3C7-42EB-8499-D502E751CF6B}" name="nombre" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{CB7B0577-1E99-458B-B4F4-8B8F510066F1}" name="descripcion" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{956BF0D9-5FF8-4956-B33A-DFC75670164D}" name="precioCompra" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{55900EF7-7B93-4C71-862C-E4DF7AAF1BA6}" name="precioVenta" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{6E31B920-1938-4064-8A8B-B9766AB94DF2}" name="stock" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{C291AAED-AFD7-40DB-BDCE-2655A373C7FE}" name="stockMinimo" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{25AB14AC-EBCD-4A79-837F-24518BFBC13F}" name="idCategoria" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{266051CB-C652-4123-97C0-1BCD68598E97}" name="idProveedor" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{233C4657-ADC3-4AEE-A6E4-88BFD354C053}" name="fechaVencimiento" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{A86C56FD-2CAA-4503-8706-DE6BF1E15690}" name="codigo" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{94D78787-A3C7-42EB-8499-D502E751CF6B}" name="nombre" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{CB7B0577-1E99-458B-B4F4-8B8F510066F1}" name="descripcion" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{956BF0D9-5FF8-4956-B33A-DFC75670164D}" name="precioCompra" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{55900EF7-7B93-4C71-862C-E4DF7AAF1BA6}" name="precioVenta" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{6E31B920-1938-4064-8A8B-B9766AB94DF2}" name="stock" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{C291AAED-AFD7-40DB-BDCE-2655A373C7FE}" name="stockMinimo" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{25AB14AC-EBCD-4A79-837F-24518BFBC13F}" name="idCategoria" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{266051CB-C652-4123-97C0-1BCD68598E97}" name="idProveedor" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{233C4657-ADC3-4AEE-A6E4-88BFD354C053}" name="fechaVencimiento" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C9E755E2-12CC-4510-A781-E50E8C326364}" name="Tabla2" displayName="Tabla2" ref="A1:D4" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C9E755E2-12CC-4510-A781-E50E8C326364}" name="Tabla2" displayName="Tabla2" ref="A1:D4" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D4" xr:uid="{C9E755E2-12CC-4510-A781-E50E8C326364}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{475C9F48-CDC2-4883-9B95-D3B79C76F66A}" name="idUsuario" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{CE27346D-1DB5-4098-AB9E-EC5CD38449F2}" name="nombreUsuario" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E01CC466-357B-455C-B857-AE83DA79C7DA}" name="contrasena" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{B896747C-FB98-434E-95B2-0327AAFDCC54}" name="rol" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{475C9F48-CDC2-4883-9B95-D3B79C76F66A}" name="idUsuario" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CE27346D-1DB5-4098-AB9E-EC5CD38449F2}" name="nombreUsuario" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E01CC466-357B-455C-B857-AE83DA79C7DA}" name="contrasena" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B896747C-FB98-434E-95B2-0327AAFDCC54}" name="rol" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1370,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D4005-2E5B-4316-B331-8FBB6649AB07}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
@@ -1389,34 +1383,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1448,7 +1442,7 @@
       <c r="I2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" t="n" s="14">
+      <c r="J2" t="n" s="8">
         <v>46022.0</v>
       </c>
     </row>
@@ -1484,13 +1478,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>23</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>8.0</v>
@@ -1514,13 +1508,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>25</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>26</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>6.5</v>
@@ -1535,24 +1529,24 @@
         <v>10.0</v>
       </c>
       <c r="H5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="I5" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J5" t="n" s="14">
+      <c r="J5" t="n" s="8">
         <v>45838.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="s" s="0">
         <v>30</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>31</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>5.0</v>
@@ -1567,24 +1561,24 @@
         <v>25.0</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J6" t="n" s="14">
+      <c r="J6" t="n" s="8">
         <v>46387.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="C7" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>35</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>12.0</v>
@@ -1599,7 +1593,7 @@
         <v>5.0</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>14</v>
@@ -1608,13 +1602,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="C8" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>54</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>99.39</v>
@@ -1629,24 +1623,24 @@
         <v>2.0</v>
       </c>
       <c r="H8" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="I8" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="J8" t="n" s="14">
+      <c r="J8" t="n" s="8">
         <v>46022.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="C9" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>54</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>99.39</v>
@@ -1661,24 +1655,24 @@
         <v>2.0</v>
       </c>
       <c r="H9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="I9" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="J9" t="n" s="14">
+      <c r="J9" t="n" s="8">
         <v>46022.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="C10" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>54</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>99.39</v>
@@ -1693,24 +1687,24 @@
         <v>2.0</v>
       </c>
       <c r="H10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="I10" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="J10" t="n" s="14">
+      <c r="J10" t="n" s="8">
         <v>46022.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="C11" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>54</v>
       </c>
       <c r="D11" t="n" s="0">
         <v>99.39</v>
@@ -1725,12 +1719,76 @@
         <v>2.0</v>
       </c>
       <c r="H11" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="I11" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="J11" t="n" s="14">
+      <c r="J11" t="n" s="8">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J12" t="n" s="8">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J13" t="n" s="8">
         <v>46022.0</v>
       </c>
     </row>
@@ -1744,9 +1802,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348FFC53-07F3-4ABC-B1C5-CEEA266BDD53}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1758,59 +1816,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>44</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1819,4 +1875,182 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E73D91-ABA1-4E4F-B8D2-1667158F783C}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7073E4-1EA7-4177-B7B7-C33464062EA9}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="16.6640625"/>
+    <col min="3" max="3" customWidth="true" width="20.33203125"/>
+    <col min="4" max="4" customWidth="true" width="23.5546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>9.99888777E8</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>9.12345678E8</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF12A230-5A23-46F0-BF7B-670F7DECCE22}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="20.109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B2" t="n" s="8">
+        <v>45951.0</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B3" t="n" s="8">
+        <v>45951.0</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Escritorio\Sistema de almacen\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CD8E62-9CCA-49BA-BB9E-006EAD1C5E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF6F16-65B1-4384-8E41-8BCA54ED8DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{4E2ADF9C-5ABC-4121-9AC5-090A39F36A55}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{4E2ADF9C-5ABC-4121-9AC5-090A39F36A55}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="79">
   <si>
     <t>codigo</t>
   </si>
@@ -376,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -394,15 +394,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -425,7 +441,416 @@
         <left style="medium">
           <color rgb="FF000000"/>
         </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
         <right/>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
         <top style="medium">
           <color rgb="FF000000"/>
         </top>
@@ -563,6 +988,25 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color rgb="FF000000"/>
@@ -598,430 +1042,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1036,32 +1056,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9DE182EC-393B-425D-9A86-F973FE66AD62}" name="Tabla1" displayName="Tabla1" ref="A1:J7" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9DE182EC-393B-425D-9A86-F973FE66AD62}" name="Tabla1" displayName="Tabla1" ref="A1:J7" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:J7" xr:uid="{9DE182EC-393B-425D-9A86-F973FE66AD62}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A86C56FD-2CAA-4503-8706-DE6BF1E15690}" name="codigo" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{94D78787-A3C7-42EB-8499-D502E751CF6B}" name="nombre" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{CB7B0577-1E99-458B-B4F4-8B8F510066F1}" name="descripcion" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{956BF0D9-5FF8-4956-B33A-DFC75670164D}" name="precioCompra" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{55900EF7-7B93-4C71-862C-E4DF7AAF1BA6}" name="precioVenta" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{6E31B920-1938-4064-8A8B-B9766AB94DF2}" name="stock" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{C291AAED-AFD7-40DB-BDCE-2655A373C7FE}" name="stockMinimo" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{25AB14AC-EBCD-4A79-837F-24518BFBC13F}" name="idCategoria" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{266051CB-C652-4123-97C0-1BCD68598E97}" name="idProveedor" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{233C4657-ADC3-4AEE-A6E4-88BFD354C053}" name="fechaVencimiento" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{A86C56FD-2CAA-4503-8706-DE6BF1E15690}" name="codigo" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{94D78787-A3C7-42EB-8499-D502E751CF6B}" name="nombre" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{CB7B0577-1E99-458B-B4F4-8B8F510066F1}" name="descripcion" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{956BF0D9-5FF8-4956-B33A-DFC75670164D}" name="precioCompra" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{55900EF7-7B93-4C71-862C-E4DF7AAF1BA6}" name="precioVenta" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{6E31B920-1938-4064-8A8B-B9766AB94DF2}" name="stock" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{C291AAED-AFD7-40DB-BDCE-2655A373C7FE}" name="stockMinimo" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{25AB14AC-EBCD-4A79-837F-24518BFBC13F}" name="idCategoria" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{266051CB-C652-4123-97C0-1BCD68598E97}" name="idProveedor" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{233C4657-ADC3-4AEE-A6E4-88BFD354C053}" name="fechaVencimiento" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C9E755E2-12CC-4510-A781-E50E8C326364}" name="Tabla2" displayName="Tabla2" ref="A1:D4" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C9E755E2-12CC-4510-A781-E50E8C326364}" name="Tabla2" displayName="Tabla2" ref="A1:D4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:D4" xr:uid="{C9E755E2-12CC-4510-A781-E50E8C326364}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{475C9F48-CDC2-4883-9B95-D3B79C76F66A}" name="idUsuario" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CE27346D-1DB5-4098-AB9E-EC5CD38449F2}" name="nombreUsuario" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{E01CC466-357B-455C-B857-AE83DA79C7DA}" name="contrasena" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{B896747C-FB98-434E-95B2-0327AAFDCC54}" name="rol" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{475C9F48-CDC2-4883-9B95-D3B79C76F66A}" name="idUsuario" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{CE27346D-1DB5-4098-AB9E-EC5CD38449F2}" name="nombreUsuario" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E01CC466-357B-455C-B857-AE83DA79C7DA}" name="contrasena" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B896747C-FB98-434E-95B2-0327AAFDCC54}" name="rol" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1364,7 +1384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D4005-2E5B-4316-B331-8FBB6649AB07}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
@@ -1442,7 +1462,7 @@
       <c r="I2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" t="n" s="8">
+      <c r="J2" t="n" s="7">
         <v>46022.0</v>
       </c>
     </row>
@@ -1534,7 +1554,7 @@
       <c r="I5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J5" t="n" s="8">
+      <c r="J5" t="n" s="7">
         <v>45838.0</v>
       </c>
     </row>
@@ -1566,7 +1586,7 @@
       <c r="I6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J6" t="n" s="8">
+      <c r="J6" t="n" s="7">
         <v>46387.0</v>
       </c>
     </row>
@@ -1628,7 +1648,7 @@
       <c r="I8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J8" t="n" s="8">
+      <c r="J8" t="n" s="7">
         <v>46022.0</v>
       </c>
     </row>
@@ -1660,7 +1680,7 @@
       <c r="I9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J9" t="n" s="8">
+      <c r="J9" t="n" s="7">
         <v>46022.0</v>
       </c>
     </row>
@@ -1692,7 +1712,7 @@
       <c r="I10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J10" t="n" s="8">
+      <c r="J10" t="n" s="7">
         <v>46022.0</v>
       </c>
     </row>
@@ -1724,7 +1744,7 @@
       <c r="I11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J11" t="n" s="8">
+      <c r="J11" t="n" s="7">
         <v>46022.0</v>
       </c>
     </row>
@@ -1756,7 +1776,7 @@
       <c r="I12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J12" t="n" s="8">
+      <c r="J12" t="n" s="7">
         <v>46022.0</v>
       </c>
     </row>
@@ -1788,7 +1808,39 @@
       <c r="I13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J13" t="n" s="8">
+      <c r="J13" t="n" s="7">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J14" t="n" s="7">
         <v>46022.0</v>
       </c>
     </row>
@@ -1802,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348FFC53-07F3-4ABC-B1C5-CEEA266BDD53}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1831,42 +1883,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1879,13 +1933,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E73D91-ABA1-4E4F-B8D2-1667158F783C}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.0"/>
+    <col min="2" max="2" customWidth="true" width="21.6640625"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
@@ -1893,6 +1951,46 @@
       </c>
       <c r="B1" s="6" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7073E4-1EA7-4177-B7B7-C33464062EA9}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1981,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF12A230-5A23-46F0-BF7B-670F7DECCE22}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2014,7 +2112,7 @@
       <c r="A2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B2" t="n" s="8">
+      <c r="B2" t="n" s="7">
         <v>45951.0</v>
       </c>
       <c r="C2" t="s" s="0">
@@ -2034,7 +2132,7 @@
       <c r="A3" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B3" t="n" s="8">
+      <c r="B3" t="n" s="7">
         <v>45951.0</v>
       </c>
       <c r="C3" t="s" s="0">

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="79">
   <si>
     <t>codigo</t>
   </si>
@@ -376,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -394,6 +394,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D4005-2E5B-4316-B331-8FBB6649AB07}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
@@ -1462,7 +1463,7 @@
       <c r="I2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" t="n" s="7">
+      <c r="J2" t="n" s="8">
         <v>46022.0</v>
       </c>
     </row>
@@ -1554,7 +1555,7 @@
       <c r="I5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J5" t="n" s="7">
+      <c r="J5" t="n" s="8">
         <v>45838.0</v>
       </c>
     </row>
@@ -1586,7 +1587,7 @@
       <c r="I6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J6" t="n" s="7">
+      <c r="J6" t="n" s="8">
         <v>46387.0</v>
       </c>
     </row>
@@ -1648,7 +1649,7 @@
       <c r="I8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J8" t="n" s="7">
+      <c r="J8" t="n" s="8">
         <v>46022.0</v>
       </c>
     </row>
@@ -1680,7 +1681,7 @@
       <c r="I9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J9" t="n" s="7">
+      <c r="J9" t="n" s="8">
         <v>46022.0</v>
       </c>
     </row>
@@ -1712,7 +1713,7 @@
       <c r="I10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J10" t="n" s="7">
+      <c r="J10" t="n" s="8">
         <v>46022.0</v>
       </c>
     </row>
@@ -1744,7 +1745,7 @@
       <c r="I11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J11" t="n" s="7">
+      <c r="J11" t="n" s="8">
         <v>46022.0</v>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       <c r="I12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J12" t="n" s="7">
+      <c r="J12" t="n" s="8">
         <v>46022.0</v>
       </c>
     </row>
@@ -1808,7 +1809,7 @@
       <c r="I13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J13" t="n" s="7">
+      <c r="J13" t="n" s="8">
         <v>46022.0</v>
       </c>
     </row>
@@ -1840,7 +1841,39 @@
       <c r="I14" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J14" t="n" s="7">
+      <c r="J14" t="n" s="8">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J15" t="n" s="8">
         <v>46022.0</v>
       </c>
     </row>
@@ -2112,7 +2145,7 @@
       <c r="A2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B2" t="n" s="7">
+      <c r="B2" t="n" s="8">
         <v>45951.0</v>
       </c>
       <c r="C2" t="s" s="0">
@@ -2132,7 +2165,7 @@
       <c r="A3" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B3" t="n" s="7">
+      <c r="B3" t="n" s="8">
         <v>45951.0</v>
       </c>
       <c r="C3" t="s" s="0">

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="79">
   <si>
     <t>codigo</t>
   </si>
@@ -376,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -394,6 +394,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -1385,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D4005-2E5B-4316-B331-8FBB6649AB07}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
@@ -1463,7 +1478,7 @@
       <c r="I2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" t="n" s="8">
+      <c r="J2" t="n" s="23">
         <v>46022.0</v>
       </c>
     </row>
@@ -1555,7 +1570,7 @@
       <c r="I5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J5" t="n" s="8">
+      <c r="J5" t="n" s="23">
         <v>45838.0</v>
       </c>
     </row>
@@ -1587,7 +1602,7 @@
       <c r="I6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J6" t="n" s="8">
+      <c r="J6" t="n" s="23">
         <v>46387.0</v>
       </c>
     </row>
@@ -1649,7 +1664,7 @@
       <c r="I8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J8" t="n" s="8">
+      <c r="J8" t="n" s="23">
         <v>46022.0</v>
       </c>
     </row>
@@ -1681,7 +1696,7 @@
       <c r="I9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J9" t="n" s="8">
+      <c r="J9" t="n" s="23">
         <v>46022.0</v>
       </c>
     </row>
@@ -1713,7 +1728,7 @@
       <c r="I10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J10" t="n" s="8">
+      <c r="J10" t="n" s="23">
         <v>46022.0</v>
       </c>
     </row>
@@ -1745,7 +1760,7 @@
       <c r="I11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J11" t="n" s="8">
+      <c r="J11" t="n" s="23">
         <v>46022.0</v>
       </c>
     </row>
@@ -1777,7 +1792,7 @@
       <c r="I12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J12" t="n" s="8">
+      <c r="J12" t="n" s="23">
         <v>46022.0</v>
       </c>
     </row>
@@ -1809,7 +1824,7 @@
       <c r="I13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J13" t="n" s="8">
+      <c r="J13" t="n" s="23">
         <v>46022.0</v>
       </c>
     </row>
@@ -1841,7 +1856,7 @@
       <c r="I14" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J14" t="n" s="8">
+      <c r="J14" t="n" s="23">
         <v>46022.0</v>
       </c>
     </row>
@@ -1873,7 +1888,487 @@
       <c r="I15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J15" t="n" s="8">
+      <c r="J15" t="n" s="23">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J16" t="n" s="23">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J17" t="n" s="23">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J18" t="n" s="23">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J19" t="n" s="23">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J20" t="n" s="23">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F21" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G21" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J21" t="n" s="23">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E22" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F22" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G22" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J22" t="n" s="23">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E23" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F23" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G23" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J23" t="n" s="23">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G24" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J24" t="n" s="23">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E25" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F25" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G25" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J25" t="n" s="23">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E26" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F26" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G26" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J26" t="n" s="23">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E27" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F27" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G27" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J27" t="n" s="23">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E28" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F28" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G28" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J28" t="n" s="23">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E29" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F29" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G29" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J29" t="n" s="23">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E30" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F30" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G30" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J30" t="n" s="23">
         <v>46022.0</v>
       </c>
     </row>
@@ -2145,7 +2640,7 @@
       <c r="A2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B2" t="n" s="8">
+      <c r="B2" t="n" s="23">
         <v>45951.0</v>
       </c>
       <c r="C2" t="s" s="0">
@@ -2165,7 +2660,7 @@
       <c r="A3" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B3" t="n" s="8">
+      <c r="B3" t="n" s="23">
         <v>45951.0</v>
       </c>
       <c r="C3" t="s" s="0">

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="79">
   <si>
     <t>codigo</t>
   </si>
@@ -376,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -394,6 +394,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -1400,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D4005-2E5B-4316-B331-8FBB6649AB07}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
@@ -1478,7 +1479,7 @@
       <c r="I2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" t="n" s="23">
+      <c r="J2" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -1570,7 +1571,7 @@
       <c r="I5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J5" t="n" s="23">
+      <c r="J5" t="n" s="24">
         <v>45838.0</v>
       </c>
     </row>
@@ -1602,7 +1603,7 @@
       <c r="I6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J6" t="n" s="23">
+      <c r="J6" t="n" s="24">
         <v>46387.0</v>
       </c>
     </row>
@@ -1664,7 +1665,7 @@
       <c r="I8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J8" t="n" s="23">
+      <c r="J8" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -1696,7 +1697,7 @@
       <c r="I9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J9" t="n" s="23">
+      <c r="J9" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -1728,7 +1729,7 @@
       <c r="I10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J10" t="n" s="23">
+      <c r="J10" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -1760,7 +1761,7 @@
       <c r="I11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J11" t="n" s="23">
+      <c r="J11" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -1792,7 +1793,7 @@
       <c r="I12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J12" t="n" s="23">
+      <c r="J12" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -1824,7 +1825,7 @@
       <c r="I13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J13" t="n" s="23">
+      <c r="J13" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -1856,7 +1857,7 @@
       <c r="I14" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J14" t="n" s="23">
+      <c r="J14" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -1888,7 +1889,7 @@
       <c r="I15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J15" t="n" s="23">
+      <c r="J15" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -1920,7 +1921,7 @@
       <c r="I16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J16" t="n" s="23">
+      <c r="J16" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -1952,7 +1953,7 @@
       <c r="I17" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J17" t="n" s="23">
+      <c r="J17" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -1984,7 +1985,7 @@
       <c r="I18" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J18" t="n" s="23">
+      <c r="J18" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       <c r="I19" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J19" t="n" s="23">
+      <c r="J19" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -2048,7 +2049,7 @@
       <c r="I20" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J20" t="n" s="23">
+      <c r="J20" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -2080,7 +2081,7 @@
       <c r="I21" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J21" t="n" s="23">
+      <c r="J21" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -2112,7 +2113,7 @@
       <c r="I22" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J22" t="n" s="23">
+      <c r="J22" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -2144,7 +2145,7 @@
       <c r="I23" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J23" t="n" s="23">
+      <c r="J23" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -2176,7 +2177,7 @@
       <c r="I24" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J24" t="n" s="23">
+      <c r="J24" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -2208,7 +2209,7 @@
       <c r="I25" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J25" t="n" s="23">
+      <c r="J25" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -2240,7 +2241,7 @@
       <c r="I26" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J26" t="n" s="23">
+      <c r="J26" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -2272,7 +2273,7 @@
       <c r="I27" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J27" t="n" s="23">
+      <c r="J27" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -2304,7 +2305,7 @@
       <c r="I28" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J28" t="n" s="23">
+      <c r="J28" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -2336,7 +2337,7 @@
       <c r="I29" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J29" t="n" s="23">
+      <c r="J29" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -2368,7 +2369,39 @@
       <c r="I30" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J30" t="n" s="23">
+      <c r="J30" t="n" s="24">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E31" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F31" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G31" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J31" t="n" s="24">
         <v>46022.0</v>
       </c>
     </row>
@@ -2640,7 +2673,7 @@
       <c r="A2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B2" t="n" s="23">
+      <c r="B2" t="n" s="24">
         <v>45951.0</v>
       </c>
       <c r="C2" t="s" s="0">
@@ -2660,7 +2693,7 @@
       <c r="A3" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B3" t="n" s="23">
+      <c r="B3" t="n" s="24">
         <v>45951.0</v>
       </c>
       <c r="C3" t="s" s="0">

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="80">
   <si>
     <t>codigo</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>usr-004</t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -394,6 +397,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -1479,7 +1484,7 @@
       <c r="I2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" t="n" s="24">
+      <c r="J2" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -1571,7 +1576,7 @@
       <c r="I5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J5" t="n" s="24">
+      <c r="J5" t="n" s="26">
         <v>45838.0</v>
       </c>
     </row>
@@ -1603,7 +1608,7 @@
       <c r="I6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J6" t="n" s="24">
+      <c r="J6" t="n" s="26">
         <v>46387.0</v>
       </c>
     </row>
@@ -1665,7 +1670,7 @@
       <c r="I8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J8" t="n" s="24">
+      <c r="J8" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -1697,7 +1702,7 @@
       <c r="I9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J9" t="n" s="24">
+      <c r="J9" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -1729,7 +1734,7 @@
       <c r="I10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J10" t="n" s="24">
+      <c r="J10" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -1761,7 +1766,7 @@
       <c r="I11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J11" t="n" s="24">
+      <c r="J11" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -1793,7 +1798,7 @@
       <c r="I12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J12" t="n" s="24">
+      <c r="J12" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -1825,7 +1830,7 @@
       <c r="I13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J13" t="n" s="24">
+      <c r="J13" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -1857,7 +1862,7 @@
       <c r="I14" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J14" t="n" s="24">
+      <c r="J14" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -1889,7 +1894,7 @@
       <c r="I15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J15" t="n" s="24">
+      <c r="J15" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -1921,7 +1926,7 @@
       <c r="I16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J16" t="n" s="24">
+      <c r="J16" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -1953,7 +1958,7 @@
       <c r="I17" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J17" t="n" s="24">
+      <c r="J17" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -1985,7 +1990,7 @@
       <c r="I18" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J18" t="n" s="24">
+      <c r="J18" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -2017,7 +2022,7 @@
       <c r="I19" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J19" t="n" s="24">
+      <c r="J19" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -2049,7 +2054,7 @@
       <c r="I20" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J20" t="n" s="24">
+      <c r="J20" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -2081,7 +2086,7 @@
       <c r="I21" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J21" t="n" s="24">
+      <c r="J21" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -2113,7 +2118,7 @@
       <c r="I22" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J22" t="n" s="24">
+      <c r="J22" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -2145,7 +2150,7 @@
       <c r="I23" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J23" t="n" s="24">
+      <c r="J23" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -2177,7 +2182,7 @@
       <c r="I24" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J24" t="n" s="24">
+      <c r="J24" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -2209,7 +2214,7 @@
       <c r="I25" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J25" t="n" s="24">
+      <c r="J25" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -2241,7 +2246,7 @@
       <c r="I26" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J26" t="n" s="24">
+      <c r="J26" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -2273,7 +2278,7 @@
       <c r="I27" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J27" t="n" s="24">
+      <c r="J27" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -2305,7 +2310,7 @@
       <c r="I28" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J28" t="n" s="24">
+      <c r="J28" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -2337,7 +2342,7 @@
       <c r="I29" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J29" t="n" s="24">
+      <c r="J29" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -2369,7 +2374,7 @@
       <c r="I30" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J30" t="n" s="24">
+      <c r="J30" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -2401,7 +2406,7 @@
       <c r="I31" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J31" t="n" s="24">
+      <c r="J31" t="n" s="26">
         <v>46022.0</v>
       </c>
     </row>
@@ -2673,7 +2678,7 @@
       <c r="A2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B2" t="n" s="24">
+      <c r="B2" t="n" s="26">
         <v>45951.0</v>
       </c>
       <c r="C2" t="s" s="0">
@@ -2693,7 +2698,7 @@
       <c r="A3" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B3" t="n" s="24">
+      <c r="B3" t="n" s="26">
         <v>45951.0</v>
       </c>
       <c r="C3" t="s" s="0">

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="80">
   <si>
     <t>codigo</t>
   </si>
@@ -379,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -397,6 +397,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -1484,7 +1486,7 @@
       <c r="I2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" t="n" s="26">
+      <c r="J2" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -1576,7 +1578,7 @@
       <c r="I5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J5" t="n" s="26">
+      <c r="J5" t="n" s="28">
         <v>45838.0</v>
       </c>
     </row>
@@ -1608,7 +1610,7 @@
       <c r="I6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J6" t="n" s="26">
+      <c r="J6" t="n" s="28">
         <v>46387.0</v>
       </c>
     </row>
@@ -1670,7 +1672,7 @@
       <c r="I8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J8" t="n" s="26">
+      <c r="J8" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -1702,7 +1704,7 @@
       <c r="I9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J9" t="n" s="26">
+      <c r="J9" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -1734,7 +1736,7 @@
       <c r="I10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J10" t="n" s="26">
+      <c r="J10" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -1766,7 +1768,7 @@
       <c r="I11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J11" t="n" s="26">
+      <c r="J11" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -1798,7 +1800,7 @@
       <c r="I12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J12" t="n" s="26">
+      <c r="J12" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -1830,7 +1832,7 @@
       <c r="I13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J13" t="n" s="26">
+      <c r="J13" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -1862,7 +1864,7 @@
       <c r="I14" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J14" t="n" s="26">
+      <c r="J14" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -1894,7 +1896,7 @@
       <c r="I15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J15" t="n" s="26">
+      <c r="J15" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -1926,7 +1928,7 @@
       <c r="I16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J16" t="n" s="26">
+      <c r="J16" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -1958,7 +1960,7 @@
       <c r="I17" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J17" t="n" s="26">
+      <c r="J17" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -1990,7 +1992,7 @@
       <c r="I18" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J18" t="n" s="26">
+      <c r="J18" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -2022,7 +2024,7 @@
       <c r="I19" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J19" t="n" s="26">
+      <c r="J19" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -2054,7 +2056,7 @@
       <c r="I20" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J20" t="n" s="26">
+      <c r="J20" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -2086,7 +2088,7 @@
       <c r="I21" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J21" t="n" s="26">
+      <c r="J21" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -2118,7 +2120,7 @@
       <c r="I22" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J22" t="n" s="26">
+      <c r="J22" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -2150,7 +2152,7 @@
       <c r="I23" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J23" t="n" s="26">
+      <c r="J23" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -2182,7 +2184,7 @@
       <c r="I24" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J24" t="n" s="26">
+      <c r="J24" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -2214,7 +2216,7 @@
       <c r="I25" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J25" t="n" s="26">
+      <c r="J25" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -2246,7 +2248,7 @@
       <c r="I26" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J26" t="n" s="26">
+      <c r="J26" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -2278,7 +2280,7 @@
       <c r="I27" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J27" t="n" s="26">
+      <c r="J27" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -2310,7 +2312,7 @@
       <c r="I28" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J28" t="n" s="26">
+      <c r="J28" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -2342,7 +2344,7 @@
       <c r="I29" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J29" t="n" s="26">
+      <c r="J29" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -2374,7 +2376,7 @@
       <c r="I30" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J30" t="n" s="26">
+      <c r="J30" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -2406,7 +2408,7 @@
       <c r="I31" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J31" t="n" s="26">
+      <c r="J31" t="n" s="28">
         <v>46022.0</v>
       </c>
     </row>
@@ -2678,7 +2680,7 @@
       <c r="A2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B2" t="n" s="26">
+      <c r="B2" t="n" s="28">
         <v>45951.0</v>
       </c>
       <c r="C2" t="s" s="0">
@@ -2698,7 +2700,7 @@
       <c r="A3" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B3" t="n" s="26">
+      <c r="B3" t="n" s="28">
         <v>45951.0</v>
       </c>
       <c r="C3" t="s" s="0">

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="80">
   <si>
     <t>codigo</t>
   </si>
@@ -379,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -397,6 +397,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -1486,7 +1487,7 @@
       <c r="I2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" t="n" s="28">
+      <c r="J2" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -1578,7 +1579,7 @@
       <c r="I5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J5" t="n" s="28">
+      <c r="J5" t="n" s="29">
         <v>45838.0</v>
       </c>
     </row>
@@ -1610,7 +1611,7 @@
       <c r="I6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J6" t="n" s="28">
+      <c r="J6" t="n" s="29">
         <v>46387.0</v>
       </c>
     </row>
@@ -1672,7 +1673,7 @@
       <c r="I8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J8" t="n" s="28">
+      <c r="J8" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -1704,7 +1705,7 @@
       <c r="I9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J9" t="n" s="28">
+      <c r="J9" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -1736,7 +1737,7 @@
       <c r="I10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J10" t="n" s="28">
+      <c r="J10" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -1768,7 +1769,7 @@
       <c r="I11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J11" t="n" s="28">
+      <c r="J11" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -1800,7 +1801,7 @@
       <c r="I12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J12" t="n" s="28">
+      <c r="J12" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -1832,7 +1833,7 @@
       <c r="I13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J13" t="n" s="28">
+      <c r="J13" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -1864,7 +1865,7 @@
       <c r="I14" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J14" t="n" s="28">
+      <c r="J14" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       <c r="I15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J15" t="n" s="28">
+      <c r="J15" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -1928,7 +1929,7 @@
       <c r="I16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J16" t="n" s="28">
+      <c r="J16" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -1960,7 +1961,7 @@
       <c r="I17" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J17" t="n" s="28">
+      <c r="J17" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -1992,7 +1993,7 @@
       <c r="I18" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J18" t="n" s="28">
+      <c r="J18" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -2024,7 +2025,7 @@
       <c r="I19" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J19" t="n" s="28">
+      <c r="J19" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -2056,7 +2057,7 @@
       <c r="I20" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J20" t="n" s="28">
+      <c r="J20" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -2088,7 +2089,7 @@
       <c r="I21" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J21" t="n" s="28">
+      <c r="J21" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -2120,7 +2121,7 @@
       <c r="I22" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J22" t="n" s="28">
+      <c r="J22" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -2152,7 +2153,7 @@
       <c r="I23" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J23" t="n" s="28">
+      <c r="J23" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -2184,7 +2185,7 @@
       <c r="I24" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J24" t="n" s="28">
+      <c r="J24" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -2216,7 +2217,7 @@
       <c r="I25" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J25" t="n" s="28">
+      <c r="J25" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -2248,7 +2249,7 @@
       <c r="I26" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J26" t="n" s="28">
+      <c r="J26" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -2280,7 +2281,7 @@
       <c r="I27" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J27" t="n" s="28">
+      <c r="J27" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -2312,7 +2313,7 @@
       <c r="I28" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J28" t="n" s="28">
+      <c r="J28" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -2344,7 +2345,7 @@
       <c r="I29" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J29" t="n" s="28">
+      <c r="J29" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       <c r="I30" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J30" t="n" s="28">
+      <c r="J30" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -2408,7 +2409,7 @@
       <c r="I31" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J31" t="n" s="28">
+      <c r="J31" t="n" s="29">
         <v>46022.0</v>
       </c>
     </row>
@@ -2680,7 +2681,7 @@
       <c r="A2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B2" t="n" s="28">
+      <c r="B2" t="n" s="29">
         <v>45951.0</v>
       </c>
       <c r="C2" t="s" s="0">
@@ -2700,7 +2701,7 @@
       <c r="A3" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B3" t="n" s="28">
+      <c r="B3" t="n" s="29">
         <v>45951.0</v>
       </c>
       <c r="C3" t="s" s="0">

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="81">
   <si>
     <t>codigo</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>usr-004</t>
+  </si>
+  <si>
+    <t>V-4671c6b8</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -397,6 +400,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -1487,7 +1491,7 @@
       <c r="I2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" t="n" s="29">
+      <c r="J2" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -1508,7 +1512,7 @@
         <v>23.5</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>80.0</v>
+        <v>79.0</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>10.0</v>
@@ -1579,7 +1583,7 @@
       <c r="I5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J5" t="n" s="29">
+      <c r="J5" t="n" s="30">
         <v>45838.0</v>
       </c>
     </row>
@@ -1611,7 +1615,7 @@
       <c r="I6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J6" t="n" s="29">
+      <c r="J6" t="n" s="30">
         <v>46387.0</v>
       </c>
     </row>
@@ -1673,7 +1677,7 @@
       <c r="I8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J8" t="n" s="29">
+      <c r="J8" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -1705,7 +1709,7 @@
       <c r="I9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J9" t="n" s="29">
+      <c r="J9" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -1737,7 +1741,7 @@
       <c r="I10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J10" t="n" s="29">
+      <c r="J10" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -1769,7 +1773,7 @@
       <c r="I11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J11" t="n" s="29">
+      <c r="J11" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -1801,7 +1805,7 @@
       <c r="I12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J12" t="n" s="29">
+      <c r="J12" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -1833,7 +1837,7 @@
       <c r="I13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J13" t="n" s="29">
+      <c r="J13" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -1865,7 +1869,7 @@
       <c r="I14" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J14" t="n" s="29">
+      <c r="J14" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -1897,7 +1901,7 @@
       <c r="I15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J15" t="n" s="29">
+      <c r="J15" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -1929,7 +1933,7 @@
       <c r="I16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J16" t="n" s="29">
+      <c r="J16" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -1961,7 +1965,7 @@
       <c r="I17" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J17" t="n" s="29">
+      <c r="J17" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -1993,7 +1997,7 @@
       <c r="I18" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J18" t="n" s="29">
+      <c r="J18" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -2025,7 +2029,7 @@
       <c r="I19" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J19" t="n" s="29">
+      <c r="J19" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -2057,7 +2061,7 @@
       <c r="I20" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J20" t="n" s="29">
+      <c r="J20" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -2089,7 +2093,7 @@
       <c r="I21" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J21" t="n" s="29">
+      <c r="J21" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -2121,7 +2125,7 @@
       <c r="I22" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J22" t="n" s="29">
+      <c r="J22" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -2153,7 +2157,7 @@
       <c r="I23" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J23" t="n" s="29">
+      <c r="J23" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -2185,7 +2189,7 @@
       <c r="I24" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J24" t="n" s="29">
+      <c r="J24" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -2217,7 +2221,7 @@
       <c r="I25" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J25" t="n" s="29">
+      <c r="J25" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -2249,7 +2253,7 @@
       <c r="I26" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J26" t="n" s="29">
+      <c r="J26" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -2281,7 +2285,7 @@
       <c r="I27" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J27" t="n" s="29">
+      <c r="J27" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -2313,7 +2317,7 @@
       <c r="I28" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J28" t="n" s="29">
+      <c r="J28" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -2345,7 +2349,7 @@
       <c r="I29" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J29" t="n" s="29">
+      <c r="J29" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -2377,7 +2381,7 @@
       <c r="I30" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J30" t="n" s="29">
+      <c r="J30" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -2409,7 +2413,7 @@
       <c r="I31" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J31" t="n" s="29">
+      <c r="J31" t="n" s="30">
         <v>46022.0</v>
       </c>
     </row>
@@ -2646,7 +2650,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF12A230-5A23-46F0-BF7B-670F7DECCE22}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
@@ -2681,7 +2685,7 @@
       <c r="A2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B2" t="n" s="29">
+      <c r="B2" t="n" s="30">
         <v>45951.0</v>
       </c>
       <c r="C2" t="s" s="0">
@@ -2701,7 +2705,7 @@
       <c r="A3" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B3" t="n" s="29">
+      <c r="B3" t="n" s="30">
         <v>45951.0</v>
       </c>
       <c r="C3" t="s" s="0">
@@ -2715,6 +2719,26 @@
       </c>
       <c r="F3" t="n" s="0">
         <v>8.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B4" t="n" s="30">
+        <v>45987.0</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Escritorio\Sistema de almacen\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF6F16-65B1-4384-8E41-8BCA54ED8DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EB115B-DAA2-4C52-991F-B6175FFFCAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{4E2ADF9C-5ABC-4121-9AC5-090A39F36A55}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{4E2ADF9C-5ABC-4121-9AC5-090A39F36A55}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
   <si>
     <t>codigo</t>
   </si>
@@ -193,6 +193,78 @@
     <t>jefe1</t>
   </si>
   <si>
+    <t>nombreCategoria</t>
+  </si>
+  <si>
+    <t>Lácteos</t>
+  </si>
+  <si>
+    <t>Abarrotes</t>
+  </si>
+  <si>
+    <t>Bebidas</t>
+  </si>
+  <si>
+    <t>Conservas</t>
+  </si>
+  <si>
+    <t>Limpieza</t>
+  </si>
+  <si>
+    <t>idVenta</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>productoVendido</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>VENTA-001</t>
+  </si>
+  <si>
+    <t>VENTA-002</t>
+  </si>
+  <si>
+    <t>Distribuidora Central S.A.</t>
+  </si>
+  <si>
+    <t>Alicorp S.A.A.</t>
+  </si>
+  <si>
+    <t>Arca Continental Lindley</t>
+  </si>
+  <si>
+    <t>idProveedor (int)</t>
+  </si>
+  <si>
+    <t>nombre (String)</t>
+  </si>
+  <si>
+    <t>telefono (String)</t>
+  </si>
+  <si>
+    <t>email (String)</t>
+  </si>
+  <si>
+    <t>ventas@central.com</t>
+  </si>
+  <si>
+    <t>contacto@alicorp.pe</t>
+  </si>
+  <si>
+    <t>pedidos@arca.com</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>V-4671c6b8</t>
+  </si>
+  <si>
     <t>PRUEBA-002</t>
   </si>
   <si>
@@ -208,79 +280,25 @@
     <t>Prov-0045</t>
   </si>
   <si>
-    <t>nombreCategoria</t>
-  </si>
-  <si>
-    <t>Lácteos</t>
-  </si>
-  <si>
-    <t>Abarrotes</t>
-  </si>
-  <si>
-    <t>Bebidas</t>
-  </si>
-  <si>
-    <t>Conservas</t>
-  </si>
-  <si>
-    <t>Limpieza</t>
-  </si>
-  <si>
-    <t>idVenta</t>
-  </si>
-  <si>
-    <t>fecha</t>
-  </si>
-  <si>
-    <t>productoVendido</t>
-  </si>
-  <si>
-    <t>cantidad</t>
-  </si>
-  <si>
-    <t>VENTA-001</t>
-  </si>
-  <si>
-    <t>VENTA-002</t>
-  </si>
-  <si>
-    <t>Distribuidora Central S.A.</t>
-  </si>
-  <si>
-    <t>Alicorp S.A.A.</t>
-  </si>
-  <si>
-    <t>Arca Continental Lindley</t>
-  </si>
-  <si>
-    <t>idProveedor (int)</t>
-  </si>
-  <si>
-    <t>nombre (String)</t>
-  </si>
-  <si>
-    <t>telefono (String)</t>
-  </si>
-  <si>
-    <t>email (String)</t>
-  </si>
-  <si>
-    <t>ventas@central.com</t>
-  </si>
-  <si>
-    <t>contacto@alicorp.pe</t>
-  </si>
-  <si>
-    <t>pedidos@arca.com</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>usr-004</t>
-  </si>
-  <si>
-    <t>V-4671c6b8</t>
+    <t>159</t>
+  </si>
+  <si>
+    <t>janpoll</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>USR-008</t>
+  </si>
+  <si>
+    <t>Jampol</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>V-0eafdd27</t>
   </si>
 </sst>
 </file>
@@ -290,19 +308,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1B1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -382,72 +394,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -610,6 +577,25 @@
           <color rgb="FF000000"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1104,13 +1090,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C9E755E2-12CC-4510-A781-E50E8C326364}" name="Tabla2" displayName="Tabla2" ref="A1:D4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C9E755E2-12CC-4510-A781-E50E8C326364}" name="Tabla2" displayName="Tabla2" ref="A1:D4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D4" xr:uid="{C9E755E2-12CC-4510-A781-E50E8C326364}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{475C9F48-CDC2-4883-9B95-D3B79C76F66A}" name="idUsuario" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{CE27346D-1DB5-4098-AB9E-EC5CD38449F2}" name="nombreUsuario" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E01CC466-357B-455C-B857-AE83DA79C7DA}" name="contrasena" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{B896747C-FB98-434E-95B2-0327AAFDCC54}" name="rol" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{475C9F48-CDC2-4883-9B95-D3B79C76F66A}" name="idUsuario" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CE27346D-1DB5-4098-AB9E-EC5CD38449F2}" name="nombreUsuario" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E01CC466-357B-455C-B857-AE83DA79C7DA}" name="contrasena" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B896747C-FB98-434E-95B2-0327AAFDCC54}" name="rol" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1413,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D4005-2E5B-4316-B331-8FBB6649AB07}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1432,34 +1418,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1491,7 +1477,7 @@
       <c r="I2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" t="n" s="30">
+      <c r="J2" t="n" s="6">
         <v>46022.0</v>
       </c>
     </row>
@@ -1512,7 +1498,7 @@
         <v>23.5</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>79.0</v>
+        <v>77.0</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>10.0</v>
@@ -1583,7 +1569,7 @@
       <c r="I5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J5" t="n" s="30">
+      <c r="J5" t="n" s="6">
         <v>45838.0</v>
       </c>
     </row>
@@ -1615,7 +1601,7 @@
       <c r="I6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J6" t="n" s="30">
+      <c r="J6" t="n" s="6">
         <v>46387.0</v>
       </c>
     </row>
@@ -1651,13 +1637,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>99.39</v>
@@ -1672,748 +1658,12 @@
         <v>2.0</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J8" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G9" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J9" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E10" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G10" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J10" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D11" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E11" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G11" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J11" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E12" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F12" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G12" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I12" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J12" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D13" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E13" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F13" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G13" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J13" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D14" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E14" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F14" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G14" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I14" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J14" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D15" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E15" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F15" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G15" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H15" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I15" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J15" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D16" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E16" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F16" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G16" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I16" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J16" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D17" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E17" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F17" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G17" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H17" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I17" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J17" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D18" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E18" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F18" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G18" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H18" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I18" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J18" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D19" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E19" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F19" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G19" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H19" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I19" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J19" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D20" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E20" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F20" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G20" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H20" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I20" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J20" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D21" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E21" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F21" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G21" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H21" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I21" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J21" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D22" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E22" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F22" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G22" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H22" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I22" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J22" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D23" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E23" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F23" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G23" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H23" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I23" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J23" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D24" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E24" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F24" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G24" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H24" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I24" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J24" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D25" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E25" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F25" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G25" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H25" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I25" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J25" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D26" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E26" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F26" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G26" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H26" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I26" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J26" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D27" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E27" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F27" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G27" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H27" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I27" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J27" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D28" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E28" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F28" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G28" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H28" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I28" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J28" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D29" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E29" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F29" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G29" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H29" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I29" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J29" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D30" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E30" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F30" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G30" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H30" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I30" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J30" t="n" s="30">
-        <v>46022.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D31" t="n" s="0">
-        <v>99.39</v>
-      </c>
-      <c r="E31" t="n" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="F31" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G31" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H31" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I31" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J31" t="n" s="30">
+        <v>79</v>
+      </c>
+      <c r="J8" t="n" s="6">
         <v>46022.0</v>
       </c>
     </row>
@@ -2427,7 +1677,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348FFC53-07F3-4ABC-B1C5-CEEA266BDD53}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
@@ -2441,16 +1691,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2470,29 +1720,43 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>43</v>
       </c>
     </row>
@@ -2518,12 +1782,12 @@
     <col min="2" max="2" customWidth="true" width="21.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>56</v>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -2531,7 +1795,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -2539,7 +1803,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -2547,7 +1811,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -2555,7 +1819,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -2563,7 +1827,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2576,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7073E4-1EA7-4177-B7B7-C33464062EA9}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2588,17 +1852,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>74</v>
+      <c r="A1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2">
@@ -2606,13 +1870,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>9.87654321E8</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -2620,13 +1884,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>9.99888777E8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -2634,13 +1898,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>9.12345678E8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2650,9 +1914,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF12A230-5A23-46F0-BF7B-670F7DECCE22}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -2662,30 +1926,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>78</v>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="B2" t="n" s="30">
+        <v>61</v>
+      </c>
+      <c r="B2" t="n" s="6">
         <v>45951.0</v>
       </c>
       <c r="C2" t="s" s="0">
@@ -2703,9 +1967,9 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="B3" t="n" s="30">
+        <v>62</v>
+      </c>
+      <c r="B3" t="n" s="6">
         <v>45951.0</v>
       </c>
       <c r="C3" t="s" s="0">
@@ -2723,9 +1987,9 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="B4" t="n" s="30">
+        <v>74</v>
+      </c>
+      <c r="B4" t="n" s="6">
         <v>45987.0</v>
       </c>
       <c r="C4" t="s" s="0">
@@ -2739,6 +2003,26 @@
       </c>
       <c r="F4" t="n" s="0">
         <v>23.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B5" t="n" s="6">
+        <v>45988.0</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>47.0</v>
       </c>
     </row>
   </sheetData>

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="87">
   <si>
     <t>codigo</t>
   </si>
@@ -394,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -409,6 +409,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1477,7 +1479,7 @@
       <c r="I2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" t="n" s="6">
+      <c r="J2" t="n" s="8">
         <v>46022.0</v>
       </c>
     </row>
@@ -1569,7 +1571,7 @@
       <c r="I5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J5" t="n" s="6">
+      <c r="J5" t="n" s="8">
         <v>45838.0</v>
       </c>
     </row>
@@ -1601,7 +1603,7 @@
       <c r="I6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J6" t="n" s="6">
+      <c r="J6" t="n" s="8">
         <v>46387.0</v>
       </c>
     </row>
@@ -1663,7 +1665,7 @@
       <c r="I8" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="J8" t="n" s="6">
+      <c r="J8" t="n" s="8">
         <v>46022.0</v>
       </c>
     </row>
@@ -1949,7 +1951,7 @@
       <c r="A2" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B2" t="n" s="6">
+      <c r="B2" t="n" s="8">
         <v>45951.0</v>
       </c>
       <c r="C2" t="s" s="0">
@@ -1969,7 +1971,7 @@
       <c r="A3" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B3" t="n" s="6">
+      <c r="B3" t="n" s="8">
         <v>45951.0</v>
       </c>
       <c r="C3" t="s" s="0">
@@ -1989,7 +1991,7 @@
       <c r="A4" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B4" t="n" s="6">
+      <c r="B4" t="n" s="8">
         <v>45987.0</v>
       </c>
       <c r="C4" t="s" s="0">
@@ -2009,7 +2011,7 @@
       <c r="A5" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B5" t="n" s="6">
+      <c r="B5" t="n" s="8">
         <v>45988.0</v>
       </c>
       <c r="C5" t="s" s="0">

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="87">
   <si>
     <t>codigo</t>
   </si>
@@ -394,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -409,6 +409,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -1401,7 +1409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D4005-2E5B-4316-B331-8FBB6649AB07}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
@@ -1479,7 +1487,7 @@
       <c r="I2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" t="n" s="8">
+      <c r="J2" t="n" s="16">
         <v>46022.0</v>
       </c>
     </row>
@@ -1571,7 +1579,7 @@
       <c r="I5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J5" t="n" s="8">
+      <c r="J5" t="n" s="16">
         <v>45838.0</v>
       </c>
     </row>
@@ -1603,7 +1611,7 @@
       <c r="I6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J6" t="n" s="8">
+      <c r="J6" t="n" s="16">
         <v>46387.0</v>
       </c>
     </row>
@@ -1665,7 +1673,39 @@
       <c r="I8" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="J8" t="n" s="8">
+      <c r="J8" t="n" s="16">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="J9" t="n" s="16">
         <v>46022.0</v>
       </c>
     </row>
@@ -1951,7 +1991,7 @@
       <c r="A2" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B2" t="n" s="8">
+      <c r="B2" t="n" s="16">
         <v>45951.0</v>
       </c>
       <c r="C2" t="s" s="0">
@@ -1971,7 +2011,7 @@
       <c r="A3" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B3" t="n" s="8">
+      <c r="B3" t="n" s="16">
         <v>45951.0</v>
       </c>
       <c r="C3" t="s" s="0">
@@ -1991,7 +2031,7 @@
       <c r="A4" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B4" t="n" s="8">
+      <c r="B4" t="n" s="16">
         <v>45987.0</v>
       </c>
       <c r="C4" t="s" s="0">
@@ -2011,7 +2051,7 @@
       <c r="A5" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B5" t="n" s="8">
+      <c r="B5" t="n" s="16">
         <v>45988.0</v>
       </c>
       <c r="C5" t="s" s="0">

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="87">
   <si>
     <t>codigo</t>
   </si>
@@ -394,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -409,6 +409,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -1479,7 +1480,7 @@
       <c r="I2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" t="n" s="8">
+      <c r="J2" t="n" s="9">
         <v>46022.0</v>
       </c>
     </row>
@@ -1571,7 +1572,7 @@
       <c r="I5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J5" t="n" s="8">
+      <c r="J5" t="n" s="9">
         <v>45838.0</v>
       </c>
     </row>
@@ -1603,7 +1604,7 @@
       <c r="I6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J6" t="n" s="8">
+      <c r="J6" t="n" s="9">
         <v>46387.0</v>
       </c>
     </row>
@@ -1665,7 +1666,7 @@
       <c r="I8" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="J8" t="n" s="8">
+      <c r="J8" t="n" s="9">
         <v>46022.0</v>
       </c>
     </row>
@@ -1951,7 +1952,7 @@
       <c r="A2" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B2" t="n" s="8">
+      <c r="B2" t="n" s="9">
         <v>45951.0</v>
       </c>
       <c r="C2" t="s" s="0">
@@ -1971,7 +1972,7 @@
       <c r="A3" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B3" t="n" s="8">
+      <c r="B3" t="n" s="9">
         <v>45951.0</v>
       </c>
       <c r="C3" t="s" s="0">
@@ -1991,7 +1992,7 @@
       <c r="A4" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B4" t="n" s="8">
+      <c r="B4" t="n" s="9">
         <v>45987.0</v>
       </c>
       <c r="C4" t="s" s="0">
@@ -2011,7 +2012,7 @@
       <c r="A5" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B5" t="n" s="8">
+      <c r="B5" t="n" s="9">
         <v>45988.0</v>
       </c>
       <c r="C5" t="s" s="0">

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7754" uniqueCount="80">
   <si>
     <t>codigo</t>
   </si>
@@ -379,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -397,6 +397,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -1408,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D4005-2E5B-4316-B331-8FBB6649AB07}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
@@ -1486,7 +1509,7 @@
       <c r="I2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" t="n" s="28">
+      <c r="J2" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -1578,7 +1601,7 @@
       <c r="I5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J5" t="n" s="28">
+      <c r="J5" t="n" s="51">
         <v>45838.0</v>
       </c>
     </row>
@@ -1610,7 +1633,7 @@
       <c r="I6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J6" t="n" s="28">
+      <c r="J6" t="n" s="51">
         <v>46387.0</v>
       </c>
     </row>
@@ -1672,7 +1695,7 @@
       <c r="I8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J8" t="n" s="28">
+      <c r="J8" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -1704,7 +1727,7 @@
       <c r="I9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J9" t="n" s="28">
+      <c r="J9" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -1736,7 +1759,7 @@
       <c r="I10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J10" t="n" s="28">
+      <c r="J10" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -1768,7 +1791,7 @@
       <c r="I11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J11" t="n" s="28">
+      <c r="J11" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -1800,7 +1823,7 @@
       <c r="I12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J12" t="n" s="28">
+      <c r="J12" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -1832,7 +1855,7 @@
       <c r="I13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J13" t="n" s="28">
+      <c r="J13" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -1864,7 +1887,7 @@
       <c r="I14" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J14" t="n" s="28">
+      <c r="J14" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -1896,7 +1919,7 @@
       <c r="I15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J15" t="n" s="28">
+      <c r="J15" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -1928,7 +1951,7 @@
       <c r="I16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J16" t="n" s="28">
+      <c r="J16" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -1960,7 +1983,7 @@
       <c r="I17" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J17" t="n" s="28">
+      <c r="J17" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -1992,7 +2015,7 @@
       <c r="I18" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J18" t="n" s="28">
+      <c r="J18" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -2024,7 +2047,7 @@
       <c r="I19" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J19" t="n" s="28">
+      <c r="J19" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -2056,7 +2079,7 @@
       <c r="I20" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J20" t="n" s="28">
+      <c r="J20" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -2088,7 +2111,7 @@
       <c r="I21" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J21" t="n" s="28">
+      <c r="J21" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -2120,7 +2143,7 @@
       <c r="I22" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J22" t="n" s="28">
+      <c r="J22" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -2152,7 +2175,7 @@
       <c r="I23" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J23" t="n" s="28">
+      <c r="J23" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -2184,7 +2207,7 @@
       <c r="I24" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J24" t="n" s="28">
+      <c r="J24" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -2216,7 +2239,7 @@
       <c r="I25" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J25" t="n" s="28">
+      <c r="J25" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -2248,7 +2271,7 @@
       <c r="I26" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J26" t="n" s="28">
+      <c r="J26" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -2280,7 +2303,7 @@
       <c r="I27" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J27" t="n" s="28">
+      <c r="J27" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -2312,7 +2335,7 @@
       <c r="I28" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J28" t="n" s="28">
+      <c r="J28" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -2344,7 +2367,7 @@
       <c r="I29" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J29" t="n" s="28">
+      <c r="J29" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -2376,7 +2399,7 @@
       <c r="I30" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J30" t="n" s="28">
+      <c r="J30" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -2408,7 +2431,103 @@
       <c r="I31" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J31" t="n" s="28">
+      <c r="J31" t="n" s="51">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E32" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F32" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G32" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J32" t="n" s="51">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E33" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F33" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G33" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J33" t="n" s="51">
+        <v>46022.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>99.39</v>
+      </c>
+      <c r="E34" t="n" s="0">
+        <v>101.2</v>
+      </c>
+      <c r="F34" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G34" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J34" t="n" s="51">
         <v>46022.0</v>
       </c>
     </row>
@@ -2680,7 +2799,7 @@
       <c r="A2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B2" t="n" s="28">
+      <c r="B2" t="n" s="51">
         <v>45951.0</v>
       </c>
       <c r="C2" t="s" s="0">
@@ -2700,7 +2819,7 @@
       <c r="A3" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B3" t="n" s="28">
+      <c r="B3" t="n" s="51">
         <v>45951.0</v>
       </c>
       <c r="C3" t="s" s="0">
